--- a/www.eia.gov/electricity/monthly/xls/table_5_06_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_06_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.6.B. Average Price of Electricity to Ultimate Customers by End-Use Sector,</t>
   </si>
   <si>
-    <t>by State, Year-to-Date through October 2016 and 2015 (Cents per Kilowatthour)</t>
+    <t>by State, Year-to-Date through November 2016 and 2015 (Cents per Kilowatthour)</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>New England</t>
@@ -1293,31 +1293,31 @@
         <v>18.89</v>
       </c>
       <c r="C5" s="8">
-        <v>19.559999999999999</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="D5" s="8">
-        <v>15.18</v>
+        <v>15.16</v>
       </c>
       <c r="E5" s="8">
-        <v>15.59</v>
+        <v>15.51</v>
       </c>
       <c r="F5" s="8">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="G5" s="8">
-        <v>12.4</v>
+        <v>12.37</v>
       </c>
       <c r="H5" s="8">
-        <v>8.36</v>
+        <v>8.26</v>
       </c>
       <c r="I5" s="8">
-        <v>10.28</v>
+        <v>10.16</v>
       </c>
       <c r="J5" s="8">
-        <v>16.18</v>
+        <v>16.16</v>
       </c>
       <c r="K5" s="8">
-        <v>16.649999999999999</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,34 +1325,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>20.13</v>
+        <v>20.09</v>
       </c>
       <c r="C6" s="10">
-        <v>21.14</v>
+        <v>21.06</v>
       </c>
       <c r="D6" s="10">
-        <v>15.75</v>
+        <v>15.81</v>
       </c>
       <c r="E6" s="10">
-        <v>16.100000000000001</v>
+        <v>16.03</v>
       </c>
       <c r="F6" s="10">
-        <v>13.05</v>
+        <v>13.03</v>
       </c>
       <c r="G6" s="10">
-        <v>13.01</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10">
-        <v>10.87</v>
+        <v>10.7</v>
       </c>
       <c r="I6" s="10">
-        <v>13.6</v>
+        <v>13.41</v>
       </c>
       <c r="J6" s="10">
-        <v>17.350000000000001</v>
+        <v>17.34</v>
       </c>
       <c r="K6" s="10">
-        <v>17.940000000000001</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1360,22 +1360,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="10">
-        <v>15.77</v>
+        <v>15.81</v>
       </c>
       <c r="C7" s="10">
-        <v>15.64</v>
+        <v>15.68</v>
       </c>
       <c r="D7" s="10">
-        <v>12.14</v>
+        <v>12.16</v>
       </c>
       <c r="E7" s="10">
-        <v>12.5</v>
+        <v>12.54</v>
       </c>
       <c r="F7" s="10">
-        <v>8.98</v>
+        <v>9</v>
       </c>
       <c r="G7" s="10">
-        <v>9.09</v>
+        <v>9.08</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
@@ -1384,10 +1384,10 @@
         <v>14</v>
       </c>
       <c r="J7" s="10">
-        <v>12.8</v>
+        <v>12.82</v>
       </c>
       <c r="K7" s="10">
-        <v>12.81</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,31 +1398,31 @@
         <v>19.14</v>
       </c>
       <c r="C8" s="10">
-        <v>19.96</v>
+        <v>19.84</v>
       </c>
       <c r="D8" s="10">
-        <v>15.59</v>
+        <v>15.53</v>
       </c>
       <c r="E8" s="10">
-        <v>15.94</v>
+        <v>15.83</v>
       </c>
       <c r="F8" s="10">
-        <v>13.12</v>
+        <v>13.1</v>
       </c>
       <c r="G8" s="10">
-        <v>13.62</v>
+        <v>13.58</v>
       </c>
       <c r="H8" s="10">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="I8" s="10">
-        <v>7.86</v>
+        <v>7.77</v>
       </c>
       <c r="J8" s="10">
-        <v>16.54</v>
+        <v>16.5</v>
       </c>
       <c r="K8" s="10">
-        <v>17.05</v>
+        <v>16.940000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,22 +1430,22 @@
         <v>16</v>
       </c>
       <c r="B9" s="10">
-        <v>18.350000000000001</v>
+        <v>18.41</v>
       </c>
       <c r="C9" s="10">
-        <v>18.579999999999998</v>
+        <v>18.54</v>
       </c>
       <c r="D9" s="10">
-        <v>14.41</v>
+        <v>14.43</v>
       </c>
       <c r="E9" s="10">
-        <v>15.05</v>
+        <v>14.99</v>
       </c>
       <c r="F9" s="10">
         <v>12.32</v>
       </c>
       <c r="G9" s="10">
-        <v>12.75</v>
+        <v>12.73</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -1454,10 +1454,10 @@
         <v>14</v>
       </c>
       <c r="J9" s="10">
-        <v>15.63</v>
+        <v>15.65</v>
       </c>
       <c r="K9" s="10">
-        <v>16.09</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,34 +1465,34 @@
         <v>17</v>
       </c>
       <c r="B10" s="10">
-        <v>18.68</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="C10" s="10">
-        <v>19.29</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="D10" s="10">
-        <v>14.91</v>
+        <v>14.87</v>
       </c>
       <c r="E10" s="10">
-        <v>15.94</v>
+        <v>15.82</v>
       </c>
       <c r="F10" s="10">
-        <v>13.54</v>
+        <v>13.53</v>
       </c>
       <c r="G10" s="10">
-        <v>13.85</v>
+        <v>13.8</v>
       </c>
       <c r="H10" s="10">
-        <v>18.73</v>
+        <v>18.77</v>
       </c>
       <c r="I10" s="10">
-        <v>18.48</v>
+        <v>18.55</v>
       </c>
       <c r="J10" s="10">
-        <v>16.34</v>
+        <v>16.3</v>
       </c>
       <c r="K10" s="10">
-        <v>17.11</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1500,22 +1500,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="10">
-        <v>17.29</v>
+        <v>17.34</v>
       </c>
       <c r="C11" s="10">
-        <v>17.03</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="D11" s="10">
-        <v>14.48</v>
+        <v>14.51</v>
       </c>
       <c r="E11" s="10">
-        <v>14.53</v>
+        <v>14.54</v>
       </c>
       <c r="F11" s="10">
-        <v>10.08</v>
+        <v>10.06</v>
       </c>
       <c r="G11" s="10">
-        <v>10.26</v>
+        <v>10.25</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
@@ -1524,10 +1524,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="10">
+        <v>14.41</v>
+      </c>
+      <c r="K11" s="10">
         <v>14.39</v>
-      </c>
-      <c r="K11" s="10">
-        <v>14.38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,28 +1541,28 @@
         <v>16</v>
       </c>
       <c r="D12" s="8">
-        <v>12.63</v>
+        <v>12.59</v>
       </c>
       <c r="E12" s="8">
-        <v>13.29</v>
+        <v>13.21</v>
       </c>
       <c r="F12" s="8">
-        <v>7.06</v>
+        <v>7.04</v>
       </c>
       <c r="G12" s="8">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="H12" s="8">
-        <v>10.96</v>
+        <v>10.9</v>
       </c>
       <c r="I12" s="8">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="J12" s="8">
-        <v>12.7</v>
+        <v>12.67</v>
       </c>
       <c r="K12" s="8">
-        <v>13.12</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,34 +1570,34 @@
         <v>20</v>
       </c>
       <c r="B13" s="10">
-        <v>15.82</v>
+        <v>15.79</v>
       </c>
       <c r="C13" s="10">
-        <v>15.87</v>
+        <v>15.83</v>
       </c>
       <c r="D13" s="10">
-        <v>12.54</v>
+        <v>12.47</v>
       </c>
       <c r="E13" s="10">
-        <v>12.93</v>
+        <v>12.86</v>
       </c>
       <c r="F13" s="10">
-        <v>10.210000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="G13" s="10">
-        <v>10.81</v>
+        <v>10.71</v>
       </c>
       <c r="H13" s="10">
-        <v>8.7899999999999991</v>
+        <v>8.76</v>
       </c>
       <c r="I13" s="10">
-        <v>10.46</v>
+        <v>10.37</v>
       </c>
       <c r="J13" s="10">
-        <v>13.6</v>
+        <v>13.54</v>
       </c>
       <c r="K13" s="10">
-        <v>13.87</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1605,34 +1605,34 @@
         <v>21</v>
       </c>
       <c r="B14" s="10">
-        <v>17.62</v>
+        <v>17.63</v>
       </c>
       <c r="C14" s="10">
-        <v>18.649999999999999</v>
+        <v>18.62</v>
       </c>
       <c r="D14" s="10">
-        <v>14.58</v>
+        <v>14.53</v>
       </c>
       <c r="E14" s="10">
-        <v>15.55</v>
+        <v>15.43</v>
       </c>
       <c r="F14" s="10">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="G14" s="10">
-        <v>6.41</v>
+        <v>6.36</v>
       </c>
       <c r="H14" s="10">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="I14" s="10">
-        <v>13.07</v>
+        <v>12.99</v>
       </c>
       <c r="J14" s="10">
-        <v>14.62</v>
+        <v>14.57</v>
       </c>
       <c r="K14" s="10">
-        <v>15.48</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1640,34 +1640,34 @@
         <v>22</v>
       </c>
       <c r="B15" s="10">
-        <v>14.05</v>
+        <v>14.06</v>
       </c>
       <c r="C15" s="10">
-        <v>13.57</v>
+        <v>13.62</v>
       </c>
       <c r="D15" s="10">
-        <v>9.2799999999999994</v>
+        <v>9.27</v>
       </c>
       <c r="E15" s="10">
-        <v>9.6199999999999992</v>
+        <v>9.61</v>
       </c>
       <c r="F15" s="10">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="G15" s="10">
-        <v>7.25</v>
+        <v>7.23</v>
       </c>
       <c r="H15" s="10">
-        <v>7.68</v>
+        <v>7.65</v>
       </c>
       <c r="I15" s="10">
-        <v>7.83</v>
+        <v>7.87</v>
       </c>
       <c r="J15" s="10">
-        <v>10.28</v>
+        <v>10.26</v>
       </c>
       <c r="K15" s="10">
-        <v>10.33</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1675,13 +1675,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="8">
-        <v>12.91</v>
+        <v>12.94</v>
       </c>
       <c r="C16" s="8">
-        <v>12.94</v>
+        <v>12.98</v>
       </c>
       <c r="D16" s="8">
-        <v>9.84</v>
+        <v>9.85</v>
       </c>
       <c r="E16" s="8">
         <v>9.98</v>
@@ -1690,19 +1690,19 @@
         <v>6.9</v>
       </c>
       <c r="G16" s="8">
+        <v>6.99</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6.91</v>
+      </c>
+      <c r="I16" s="8">
         <v>7</v>
-      </c>
-      <c r="H16" s="8">
-        <v>6.89</v>
-      </c>
-      <c r="I16" s="8">
-        <v>6.97</v>
       </c>
       <c r="J16" s="8">
         <v>9.89</v>
       </c>
       <c r="K16" s="8">
-        <v>9.91</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1710,10 +1710,10 @@
         <v>24</v>
       </c>
       <c r="B17" s="10">
-        <v>12.23</v>
+        <v>12.27</v>
       </c>
       <c r="C17" s="10">
-        <v>12.5</v>
+        <v>12.56</v>
       </c>
       <c r="D17" s="10">
         <v>8.76</v>
@@ -1722,22 +1722,22 @@
         <v>9.07</v>
       </c>
       <c r="F17" s="10">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="G17" s="10">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="H17" s="10">
-        <v>6.67</v>
+        <v>6.69</v>
       </c>
       <c r="I17" s="10">
-        <v>6.75</v>
+        <v>6.79</v>
       </c>
       <c r="J17" s="10">
         <v>9.19</v>
       </c>
       <c r="K17" s="10">
-        <v>9.43</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1745,31 +1745,31 @@
         <v>25</v>
       </c>
       <c r="B18" s="10">
-        <v>11.31</v>
+        <v>11.39</v>
       </c>
       <c r="C18" s="10">
-        <v>11.54</v>
+        <v>11.58</v>
       </c>
       <c r="D18" s="10">
-        <v>9.66</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="E18" s="10">
-        <v>9.7899999999999991</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F18" s="10">
-        <v>6.92</v>
+        <v>6.97</v>
       </c>
       <c r="G18" s="10">
         <v>6.88</v>
       </c>
       <c r="H18" s="10">
-        <v>9.59</v>
+        <v>9.73</v>
       </c>
       <c r="I18" s="10">
-        <v>9.93</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="J18" s="10">
-        <v>9.0500000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="K18" s="10">
         <v>9.01</v>
@@ -1780,34 +1780,34 @@
         <v>26</v>
       </c>
       <c r="B19" s="10">
-        <v>15.29</v>
+        <v>15.3</v>
       </c>
       <c r="C19" s="10">
-        <v>14.39</v>
+        <v>14.41</v>
       </c>
       <c r="D19" s="10">
-        <v>10.62</v>
+        <v>10.65</v>
       </c>
       <c r="E19" s="10">
-        <v>10.58</v>
+        <v>10.57</v>
       </c>
       <c r="F19" s="10">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="G19" s="10">
-        <v>7.06</v>
+        <v>7.04</v>
       </c>
       <c r="H19" s="10">
-        <v>11.55</v>
+        <v>11.59</v>
       </c>
       <c r="I19" s="10">
-        <v>11.4</v>
+        <v>11.42</v>
       </c>
       <c r="J19" s="10">
         <v>11.13</v>
       </c>
       <c r="K19" s="10">
-        <v>10.77</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,31 +1818,31 @@
         <v>12.3</v>
       </c>
       <c r="C20" s="10">
-        <v>12.78</v>
+        <v>12.8</v>
       </c>
       <c r="D20" s="10">
-        <v>9.85</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="E20" s="10">
-        <v>10.06</v>
+        <v>10.07</v>
       </c>
       <c r="F20" s="10">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="G20" s="10">
-        <v>7.01</v>
+        <v>7.02</v>
       </c>
       <c r="H20" s="10">
-        <v>7.76</v>
+        <v>7.77</v>
       </c>
       <c r="I20" s="10">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="J20" s="10">
-        <v>9.74</v>
+        <v>9.73</v>
       </c>
       <c r="K20" s="10">
-        <v>9.9700000000000006</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1850,34 +1850,34 @@
         <v>28</v>
       </c>
       <c r="B21" s="10">
-        <v>14.46</v>
+        <v>14.45</v>
       </c>
       <c r="C21" s="10">
-        <v>14.2</v>
+        <v>14.17</v>
       </c>
       <c r="D21" s="10">
-        <v>11</v>
+        <v>10.98</v>
       </c>
       <c r="E21" s="10">
-        <v>10.97</v>
+        <v>10.93</v>
       </c>
       <c r="F21" s="10">
-        <v>7.77</v>
+        <v>7.76</v>
       </c>
       <c r="G21" s="10">
-        <v>7.65</v>
+        <v>7.62</v>
       </c>
       <c r="H21" s="10">
-        <v>14.54</v>
+        <v>14.59</v>
       </c>
       <c r="I21" s="10">
-        <v>14.19</v>
+        <v>14.45</v>
       </c>
       <c r="J21" s="10">
-        <v>10.96</v>
+        <v>10.94</v>
       </c>
       <c r="K21" s="10">
-        <v>10.8</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1888,31 +1888,31 @@
         <v>11.85</v>
       </c>
       <c r="C22" s="8">
-        <v>11.55</v>
+        <v>11.54</v>
       </c>
       <c r="D22" s="8">
-        <v>9.56</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="E22" s="8">
+        <v>9.32</v>
+      </c>
+      <c r="F22" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6.92</v>
+      </c>
+      <c r="H22" s="8">
         <v>9.36</v>
       </c>
-      <c r="F22" s="8">
-        <v>7.15</v>
-      </c>
-      <c r="G22" s="8">
-        <v>6.97</v>
-      </c>
-      <c r="H22" s="8">
-        <v>9.42</v>
-      </c>
       <c r="I22" s="8">
-        <v>9.11</v>
+        <v>9.07</v>
       </c>
       <c r="J22" s="8">
-        <v>9.67</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="K22" s="8">
-        <v>9.3800000000000008</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,22 +1920,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="C23" s="10">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="D23" s="10">
-        <v>9.5299999999999994</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E23" s="10">
-        <v>9.11</v>
+        <v>9.02</v>
       </c>
       <c r="F23" s="10">
-        <v>6.34</v>
+        <v>6.23</v>
       </c>
       <c r="G23" s="10">
-        <v>6.06</v>
+        <v>5.97</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>14</v>
@@ -1944,10 +1944,10 @@
         <v>14</v>
       </c>
       <c r="J23" s="10">
-        <v>8.94</v>
+        <v>8.84</v>
       </c>
       <c r="K23" s="10">
-        <v>8.52</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1955,22 +1955,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="10">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="C24" s="10">
-        <v>12.31</v>
+        <v>12.35</v>
       </c>
       <c r="D24" s="10">
-        <v>10.32</v>
+        <v>10.28</v>
       </c>
       <c r="E24" s="10">
-        <v>10.119999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="F24" s="10">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="G24" s="10">
-        <v>7.64</v>
+        <v>7.63</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>14</v>
@@ -1979,10 +1979,10 @@
         <v>14</v>
       </c>
       <c r="J24" s="10">
-        <v>10.48</v>
+        <v>10.44</v>
       </c>
       <c r="K24" s="10">
-        <v>10.17</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,19 +1990,19 @@
         <v>32</v>
       </c>
       <c r="B25" s="10">
-        <v>12.79</v>
+        <v>12.82</v>
       </c>
       <c r="C25" s="10">
-        <v>12.2</v>
+        <v>12.17</v>
       </c>
       <c r="D25" s="10">
-        <v>9.91</v>
+        <v>9.94</v>
       </c>
       <c r="E25" s="10">
-        <v>9.5299999999999994</v>
+        <v>9.49</v>
       </c>
       <c r="F25" s="10">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="G25" s="10">
         <v>7.05</v>
@@ -2014,10 +2014,10 @@
         <v>9.56</v>
       </c>
       <c r="J25" s="10">
-        <v>10.050000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="K25" s="10">
-        <v>9.59</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2025,34 +2025,34 @@
         <v>33</v>
       </c>
       <c r="B26" s="10">
-        <v>11.05</v>
+        <v>11.03</v>
       </c>
       <c r="C26" s="10">
         <v>11.26</v>
       </c>
       <c r="D26" s="10">
-        <v>9.18</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E26" s="10">
-        <v>9.25</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="F26" s="10">
-        <v>6.87</v>
+        <v>6.82</v>
       </c>
       <c r="G26" s="10">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="H26" s="10">
-        <v>8.61</v>
+        <v>8.48</v>
       </c>
       <c r="I26" s="10">
-        <v>8.58</v>
+        <v>8.49</v>
       </c>
       <c r="J26" s="10">
-        <v>9.65</v>
+        <v>9.6</v>
       </c>
       <c r="K26" s="10">
-        <v>9.5299999999999994</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2060,34 +2060,34 @@
         <v>34</v>
       </c>
       <c r="B27" s="10">
-        <v>11.02</v>
+        <v>11</v>
       </c>
       <c r="C27" s="10">
-        <v>10.75</v>
+        <v>10.72</v>
       </c>
       <c r="D27" s="10">
+        <v>8.92</v>
+      </c>
+      <c r="E27" s="10">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F27" s="10">
+        <v>7.58</v>
+      </c>
+      <c r="G27" s="10">
+        <v>7.65</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="10">
+        <v>9.11</v>
+      </c>
+      <c r="K27" s="10">
         <v>8.9600000000000009</v>
-      </c>
-      <c r="E27" s="10">
-        <v>8.76</v>
-      </c>
-      <c r="F27" s="10">
-        <v>7.65</v>
-      </c>
-      <c r="G27" s="10">
-        <v>7.72</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="10">
-        <v>9.17</v>
-      </c>
-      <c r="K27" s="10">
-        <v>9.02</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2095,22 +2095,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="10">
-        <v>10.39</v>
+        <v>10.38</v>
       </c>
       <c r="C28" s="10">
-        <v>9.7799999999999994</v>
+        <v>9.73</v>
       </c>
       <c r="D28" s="10">
-        <v>9.19</v>
+        <v>9.18</v>
       </c>
       <c r="E28" s="10">
-        <v>8.91</v>
+        <v>8.86</v>
       </c>
       <c r="F28" s="10">
-        <v>8.26</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="G28" s="10">
-        <v>8.1199999999999992</v>
+        <v>8.1</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>14</v>
@@ -2122,7 +2122,7 @@
         <v>9.11</v>
       </c>
       <c r="K28" s="10">
-        <v>8.83</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,22 +2130,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="10">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="C29" s="10">
-        <v>11.16</v>
+        <v>11.15</v>
       </c>
       <c r="D29" s="10">
         <v>9.49</v>
       </c>
       <c r="E29" s="10">
-        <v>9.1999999999999993</v>
+        <v>9.19</v>
       </c>
       <c r="F29" s="10">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="G29" s="10">
-        <v>7.41</v>
+        <v>7.38</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>14</v>
@@ -2154,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="J29" s="10">
-        <v>9.82</v>
+        <v>9.81</v>
       </c>
       <c r="K29" s="10">
-        <v>9.51</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="8">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C30" s="8">
         <v>11.77</v>
@@ -2174,25 +2174,25 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E30" s="8">
-        <v>9.5299999999999994</v>
+        <v>9.51</v>
       </c>
       <c r="F30" s="8">
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="G30" s="8">
-        <v>6.64</v>
+        <v>6.6</v>
       </c>
       <c r="H30" s="8">
         <v>7.9</v>
       </c>
       <c r="I30" s="8">
-        <v>8.15</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="J30" s="8">
-        <v>9.8800000000000008</v>
+        <v>9.86</v>
       </c>
       <c r="K30" s="8">
-        <v>10.029999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2200,22 +2200,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="10">
-        <v>13.49</v>
+        <v>13.51</v>
       </c>
       <c r="C31" s="10">
-        <v>13.34</v>
+        <v>13.42</v>
       </c>
       <c r="D31" s="10">
-        <v>10.16</v>
+        <v>10.15</v>
       </c>
       <c r="E31" s="10">
-        <v>10.18</v>
+        <v>10.23</v>
       </c>
       <c r="F31" s="10">
-        <v>8.08</v>
+        <v>8.02</v>
       </c>
       <c r="G31" s="10">
-        <v>8.3699999999999992</v>
+        <v>8.35</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>14</v>
@@ -2224,10 +2224,10 @@
         <v>14</v>
       </c>
       <c r="J31" s="10">
-        <v>11.21</v>
+        <v>11.19</v>
       </c>
       <c r="K31" s="10">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,31 +2235,31 @@
         <v>39</v>
       </c>
       <c r="B32" s="10">
-        <v>12.85</v>
+        <v>12.9</v>
       </c>
       <c r="C32" s="10">
-        <v>12.91</v>
+        <v>12.95</v>
       </c>
       <c r="D32" s="10">
         <v>11.72</v>
       </c>
       <c r="E32" s="10">
-        <v>11.96</v>
+        <v>11.97</v>
       </c>
       <c r="F32" s="10">
-        <v>9</v>
+        <v>8.98</v>
       </c>
       <c r="G32" s="10">
-        <v>8.7100000000000009</v>
+        <v>8.75</v>
       </c>
       <c r="H32" s="10">
         <v>9.36</v>
       </c>
       <c r="I32" s="10">
-        <v>8.86</v>
+        <v>8.89</v>
       </c>
       <c r="J32" s="10">
-        <v>11.86</v>
+        <v>11.87</v>
       </c>
       <c r="K32" s="10">
         <v>12.02</v>
@@ -2276,28 +2276,28 @@
         <v>11.6</v>
       </c>
       <c r="D33" s="10">
-        <v>9.11</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E33" s="10">
-        <v>9.5299999999999994</v>
+        <v>9.52</v>
       </c>
       <c r="F33" s="10">
         <v>7.81</v>
       </c>
       <c r="G33" s="10">
-        <v>8.27</v>
+        <v>8.25</v>
       </c>
       <c r="H33" s="10">
-        <v>8.31</v>
+        <v>8.33</v>
       </c>
       <c r="I33" s="10">
-        <v>8.9</v>
+        <v>8.92</v>
       </c>
       <c r="J33" s="10">
         <v>10.14</v>
       </c>
       <c r="K33" s="10">
-        <v>10.53</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,34 +2305,34 @@
         <v>41</v>
       </c>
       <c r="B34" s="10">
-        <v>11.58</v>
+        <v>11.54</v>
       </c>
       <c r="C34" s="10">
-        <v>11.72</v>
+        <v>11.64</v>
       </c>
       <c r="D34" s="10">
-        <v>9.66</v>
+        <v>9.67</v>
       </c>
       <c r="E34" s="10">
-        <v>10.01</v>
+        <v>9.94</v>
       </c>
       <c r="F34" s="10">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="G34" s="10">
-        <v>6.01</v>
+        <v>5.94</v>
       </c>
       <c r="H34" s="10">
-        <v>5.14</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I34" s="10">
-        <v>5.47</v>
+        <v>5.37</v>
       </c>
       <c r="J34" s="10">
-        <v>9.56</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="K34" s="10">
-        <v>9.7899999999999991</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2340,34 +2340,34 @@
         <v>42</v>
       </c>
       <c r="B35" s="10">
-        <v>14.24</v>
+        <v>14.25</v>
       </c>
       <c r="C35" s="10">
-        <v>13.68</v>
+        <v>13.76</v>
       </c>
       <c r="D35" s="10">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="E35" s="10">
-        <v>11.06</v>
+        <v>11.02</v>
       </c>
       <c r="F35" s="10">
         <v>7.85</v>
       </c>
       <c r="G35" s="10">
-        <v>8.61</v>
+        <v>8.58</v>
       </c>
       <c r="H35" s="10">
         <v>7.84</v>
       </c>
       <c r="I35" s="10">
-        <v>8.42</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="J35" s="10">
         <v>12.2</v>
       </c>
       <c r="K35" s="10">
-        <v>12.07</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,28 +2381,28 @@
         <v>11.32</v>
       </c>
       <c r="D36" s="10">
-        <v>8.6999999999999993</v>
+        <v>8.67</v>
       </c>
       <c r="E36" s="10">
-        <v>8.77</v>
+        <v>8.74</v>
       </c>
       <c r="F36" s="10">
-        <v>6.29</v>
+        <v>6.25</v>
       </c>
       <c r="G36" s="10">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="H36" s="10">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
       <c r="I36" s="10">
-        <v>7.86</v>
+        <v>7.88</v>
       </c>
       <c r="J36" s="10">
-        <v>9.32</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="K36" s="10">
-        <v>9.44</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>12.48</v>
       </c>
       <c r="C37" s="10">
-        <v>12.6</v>
+        <v>12.61</v>
       </c>
       <c r="D37" s="10">
         <v>10.130000000000001</v>
@@ -2422,10 +2422,10 @@
         <v>10.24</v>
       </c>
       <c r="F37" s="10">
-        <v>6.04</v>
+        <v>5.99</v>
       </c>
       <c r="G37" s="10">
-        <v>6.09</v>
+        <v>6.05</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>14</v>
@@ -2434,10 +2434,10 @@
         <v>14</v>
       </c>
       <c r="J37" s="10">
-        <v>9.69</v>
+        <v>9.64</v>
       </c>
       <c r="K37" s="10">
-        <v>9.65</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2451,28 +2451,28 @@
         <v>11.4</v>
       </c>
       <c r="D38" s="10">
-        <v>8.02</v>
+        <v>8</v>
       </c>
       <c r="E38" s="10">
-        <v>8.23</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="F38" s="10">
-        <v>6.72</v>
+        <v>6.71</v>
       </c>
       <c r="G38" s="10">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="H38" s="10">
         <v>7.75</v>
       </c>
       <c r="I38" s="10">
-        <v>8.18</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="J38" s="10">
-        <v>9.2200000000000006</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K38" s="10">
-        <v>9.35</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2480,22 +2480,22 @@
         <v>46</v>
       </c>
       <c r="B39" s="10">
-        <v>11.18</v>
+        <v>11.22</v>
       </c>
       <c r="C39" s="10">
-        <v>10</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D39" s="10">
-        <v>9.31</v>
+        <v>9.35</v>
       </c>
       <c r="E39" s="10">
-        <v>8.5500000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="F39" s="10">
-        <v>6.54</v>
+        <v>6.56</v>
       </c>
       <c r="G39" s="10">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>14</v>
@@ -2504,10 +2504,10 @@
         <v>14</v>
       </c>
       <c r="J39" s="10">
-        <v>8.85</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="K39" s="10">
-        <v>8.06</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2515,22 +2515,22 @@
         <v>47</v>
       </c>
       <c r="B40" s="8">
-        <v>10.77</v>
+        <v>10.81</v>
       </c>
       <c r="C40" s="8">
-        <v>10.8</v>
+        <v>10.82</v>
       </c>
       <c r="D40" s="8">
-        <v>10.050000000000001</v>
+        <v>10.07</v>
       </c>
       <c r="E40" s="8">
-        <v>10.26</v>
+        <v>10.25</v>
       </c>
       <c r="F40" s="8">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="G40" s="8">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>14</v>
@@ -2542,7 +2542,7 @@
         <v>9.01</v>
       </c>
       <c r="K40" s="8">
-        <v>9.1</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2550,22 +2550,22 @@
         <v>48</v>
       </c>
       <c r="B41" s="10">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="C41" s="10">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="D41" s="10">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="E41" s="10">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
       <c r="F41" s="10">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="G41" s="10">
-        <v>6.14</v>
+        <v>6.09</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>14</v>
@@ -2574,10 +2574,10 @@
         <v>14</v>
       </c>
       <c r="J41" s="10">
-        <v>9.59</v>
+        <v>9.58</v>
       </c>
       <c r="K41" s="10">
-        <v>9.44</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,16 +2585,16 @@
         <v>49</v>
       </c>
       <c r="B42" s="10">
-        <v>10.23</v>
+        <v>10.28</v>
       </c>
       <c r="C42" s="10">
-        <v>10.18</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="D42" s="10">
-        <v>9.34</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="E42" s="10">
-        <v>9.43</v>
+        <v>9.44</v>
       </c>
       <c r="F42" s="10">
         <v>5.47</v>
@@ -2609,7 +2609,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="10">
-        <v>8.23</v>
+        <v>8.24</v>
       </c>
       <c r="K42" s="10">
         <v>8.1300000000000008</v>
@@ -2620,22 +2620,22 @@
         <v>50</v>
       </c>
       <c r="B43" s="10">
-        <v>10.5</v>
+        <v>10.53</v>
       </c>
       <c r="C43" s="10">
-        <v>11.27</v>
+        <v>11.28</v>
       </c>
       <c r="D43" s="10">
-        <v>9.5299999999999994</v>
+        <v>9.57</v>
       </c>
       <c r="E43" s="10">
-        <v>10.59</v>
+        <v>10.56</v>
       </c>
       <c r="F43" s="10">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="G43" s="10">
-        <v>6.64</v>
+        <v>6.6</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>14</v>
@@ -2644,10 +2644,10 @@
         <v>14</v>
       </c>
       <c r="J43" s="10">
-        <v>8.69</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K43" s="10">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2655,22 +2655,22 @@
         <v>51</v>
       </c>
       <c r="B44" s="10">
-        <v>10.26</v>
+        <v>10.3</v>
       </c>
       <c r="C44" s="10">
-        <v>10.25</v>
+        <v>10.29</v>
       </c>
       <c r="D44" s="10">
-        <v>9.9700000000000006</v>
+        <v>9.99</v>
       </c>
       <c r="E44" s="10">
-        <v>10.17</v>
+        <v>10.16</v>
       </c>
       <c r="F44" s="10">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="G44" s="10">
-        <v>6.23</v>
+        <v>6.2</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>14</v>
@@ -2679,10 +2679,10 @@
         <v>14</v>
       </c>
       <c r="J44" s="10">
-        <v>9.2200000000000006</v>
+        <v>9.23</v>
       </c>
       <c r="K44" s="10">
-        <v>9.31</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2693,31 +2693,31 @@
         <v>10.58</v>
       </c>
       <c r="C45" s="8">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="D45" s="8">
-        <v>7.82</v>
+        <v>7.81</v>
       </c>
       <c r="E45" s="8">
-        <v>8.2200000000000006</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F45" s="8">
         <v>5.2</v>
       </c>
       <c r="G45" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="H45" s="8">
         <v>5.66</v>
       </c>
-      <c r="H45" s="8">
-        <v>5.64</v>
-      </c>
       <c r="I45" s="8">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="J45" s="8">
-        <v>8.1</v>
+        <v>8.08</v>
       </c>
       <c r="K45" s="8">
-        <v>8.5</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2725,34 +2725,34 @@
         <v>53</v>
       </c>
       <c r="B46" s="10">
-        <v>9.93</v>
+        <v>9.94</v>
       </c>
       <c r="C46" s="10">
-        <v>9.83</v>
+        <v>9.84</v>
       </c>
       <c r="D46" s="10">
-        <v>8.15</v>
+        <v>8.14</v>
       </c>
       <c r="E46" s="10">
-        <v>8.34</v>
+        <v>8.33</v>
       </c>
       <c r="F46" s="10">
-        <v>5.95</v>
+        <v>5.93</v>
       </c>
       <c r="G46" s="10">
-        <v>6.28</v>
+        <v>6.26</v>
       </c>
       <c r="H46" s="10">
-        <v>10.130000000000001</v>
+        <v>10.26</v>
       </c>
       <c r="I46" s="10">
-        <v>11.51</v>
+        <v>11.35</v>
       </c>
       <c r="J46" s="10">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="K46" s="10">
-        <v>8.23</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2760,34 +2760,34 @@
         <v>54</v>
       </c>
       <c r="B47" s="10">
-        <v>9.1</v>
+        <v>9.11</v>
       </c>
       <c r="C47" s="10">
-        <v>9.3800000000000008</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="D47" s="10">
-        <v>8.44</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E47" s="10">
-        <v>8.6999999999999993</v>
+        <v>8.68</v>
       </c>
       <c r="F47" s="10">
-        <v>4.97</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G47" s="10">
-        <v>5.48</v>
+        <v>5.46</v>
       </c>
       <c r="H47" s="10">
-        <v>8.9499999999999993</v>
+        <v>9.01</v>
       </c>
       <c r="I47" s="10">
-        <v>8.39</v>
+        <v>8.31</v>
       </c>
       <c r="J47" s="10">
         <v>7.39</v>
       </c>
       <c r="K47" s="10">
-        <v>7.73</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2795,22 +2795,22 @@
         <v>55</v>
       </c>
       <c r="B48" s="10">
-        <v>10.19</v>
+        <v>10.14</v>
       </c>
       <c r="C48" s="10">
-        <v>10.220000000000001</v>
+        <v>10.23</v>
       </c>
       <c r="D48" s="10">
-        <v>7.54</v>
+        <v>7.48</v>
       </c>
       <c r="E48" s="10">
-        <v>7.77</v>
+        <v>7.73</v>
       </c>
       <c r="F48" s="10">
-        <v>4.8499999999999996</v>
+        <v>4.83</v>
       </c>
       <c r="G48" s="10">
-        <v>5.46</v>
+        <v>5.4</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>14</v>
@@ -2819,10 +2819,10 @@
         <v>14</v>
       </c>
       <c r="J48" s="10">
-        <v>7.82</v>
+        <v>7.75</v>
       </c>
       <c r="K48" s="10">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,34 +2830,34 @@
         <v>56</v>
       </c>
       <c r="B49" s="10">
-        <v>11.03</v>
+        <v>11.04</v>
       </c>
       <c r="C49" s="10">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="D49" s="10">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="E49" s="10">
-        <v>8.19</v>
+        <v>8.17</v>
       </c>
       <c r="F49" s="10">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="G49" s="10">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="H49" s="10">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="I49" s="10">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="J49" s="10">
-        <v>8.31</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="K49" s="10">
-        <v>8.7899999999999991</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2865,34 +2865,34 @@
         <v>57</v>
       </c>
       <c r="B50" s="8">
-        <v>11.75</v>
+        <v>11.73</v>
       </c>
       <c r="C50" s="8">
-        <v>11.97</v>
+        <v>11.92</v>
       </c>
       <c r="D50" s="8">
-        <v>9.64</v>
+        <v>9.61</v>
       </c>
       <c r="E50" s="8">
-        <v>9.82</v>
+        <v>9.77</v>
       </c>
       <c r="F50" s="8">
-        <v>6.41</v>
+        <v>6.36</v>
       </c>
       <c r="G50" s="8">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="H50" s="8">
-        <v>9.69</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="I50" s="8">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="J50" s="8">
-        <v>9.42</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="K50" s="8">
-        <v>9.6199999999999992</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2900,34 +2900,34 @@
         <v>58</v>
       </c>
       <c r="B51" s="10">
-        <v>12.32</v>
+        <v>12.28</v>
       </c>
       <c r="C51" s="10">
-        <v>12.31</v>
+        <v>12.25</v>
       </c>
       <c r="D51" s="10">
-        <v>10.63</v>
+        <v>10.55</v>
       </c>
       <c r="E51" s="10">
-        <v>10.55</v>
+        <v>10.46</v>
       </c>
       <c r="F51" s="10">
-        <v>6.13</v>
+        <v>6.1</v>
       </c>
       <c r="G51" s="10">
-        <v>6.42</v>
+        <v>6.34</v>
       </c>
       <c r="H51" s="10">
-        <v>9.49</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="I51" s="10">
-        <v>9.57</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="J51" s="10">
-        <v>10.54</v>
+        <v>10.47</v>
       </c>
       <c r="K51" s="10">
-        <v>10.54</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2935,34 +2935,34 @@
         <v>59</v>
       </c>
       <c r="B52" s="10">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="C52" s="10">
-        <v>12.21</v>
+        <v>12.17</v>
       </c>
       <c r="D52" s="10">
-        <v>9.67</v>
+        <v>9.69</v>
       </c>
       <c r="E52" s="10">
-        <v>9.93</v>
+        <v>9.92</v>
       </c>
       <c r="F52" s="10">
-        <v>7.1</v>
+        <v>7.11</v>
       </c>
       <c r="G52" s="10">
-        <v>7.45</v>
+        <v>7.42</v>
       </c>
       <c r="H52" s="10">
-        <v>9.73</v>
+        <v>9.77</v>
       </c>
       <c r="I52" s="10">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="J52" s="10">
-        <v>9.76</v>
+        <v>9.77</v>
       </c>
       <c r="K52" s="10">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2973,19 +2973,19 @@
         <v>10.08</v>
       </c>
       <c r="C53" s="10">
-        <v>10.039999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D53" s="10">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="E53" s="10">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="F53" s="10">
-        <v>6.69</v>
+        <v>6.63</v>
       </c>
       <c r="G53" s="10">
-        <v>6.71</v>
+        <v>6.65</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>14</v>
@@ -2997,7 +2997,7 @@
         <v>8.14</v>
       </c>
       <c r="K53" s="10">
-        <v>8.1199999999999992</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3005,22 +3005,22 @@
         <v>61</v>
       </c>
       <c r="B54" s="10">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="C54" s="10">
-        <v>10.96</v>
+        <v>10.95</v>
       </c>
       <c r="D54" s="10">
         <v>10.19</v>
       </c>
       <c r="E54" s="10">
-        <v>10.29</v>
+        <v>10.27</v>
       </c>
       <c r="F54" s="10">
-        <v>5.01</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G54" s="10">
-        <v>5.39</v>
+        <v>5.36</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>14</v>
@@ -3029,10 +3029,10 @@
         <v>14</v>
       </c>
       <c r="J54" s="10">
-        <v>8.91</v>
+        <v>8.89</v>
       </c>
       <c r="K54" s="10">
-        <v>8.9499999999999993</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3040,34 +3040,34 @@
         <v>62</v>
       </c>
       <c r="B55" s="10">
-        <v>11.41</v>
+        <v>11.43</v>
       </c>
       <c r="C55" s="10">
         <v>12.79</v>
       </c>
       <c r="D55" s="10">
-        <v>8.06</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E55" s="10">
-        <v>9.32</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F55" s="10">
-        <v>6.18</v>
+        <v>5.96</v>
       </c>
       <c r="G55" s="10">
-        <v>7.05</v>
+        <v>6.89</v>
       </c>
       <c r="H55" s="10">
-        <v>7.91</v>
+        <v>7.86</v>
       </c>
       <c r="I55" s="10">
-        <v>9.24</v>
+        <v>9.18</v>
       </c>
       <c r="J55" s="10">
-        <v>8.5500000000000007</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="K55" s="10">
-        <v>9.67</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3078,19 +3078,19 @@
         <v>12.08</v>
       </c>
       <c r="C56" s="10">
-        <v>12.65</v>
+        <v>12.58</v>
       </c>
       <c r="D56" s="10">
-        <v>9.8800000000000008</v>
+        <v>9.85</v>
       </c>
       <c r="E56" s="10">
-        <v>10.44</v>
+        <v>10.38</v>
       </c>
       <c r="F56" s="10">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="G56" s="10">
-        <v>6.49</v>
+        <v>6.43</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>14</v>
@@ -3099,10 +3099,10 @@
         <v>14</v>
       </c>
       <c r="J56" s="10">
-        <v>9.19</v>
+        <v>9.16</v>
       </c>
       <c r="K56" s="10">
-        <v>9.7899999999999991</v>
+        <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3110,34 +3110,34 @@
         <v>64</v>
       </c>
       <c r="B57" s="10">
-        <v>11.15</v>
+        <v>11.12</v>
       </c>
       <c r="C57" s="10">
-        <v>10.95</v>
+        <v>10.92</v>
       </c>
       <c r="D57" s="10">
-        <v>8.94</v>
+        <v>8.91</v>
       </c>
       <c r="E57" s="10">
-        <v>8.76</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F57" s="10">
-        <v>6.45</v>
+        <v>6.38</v>
       </c>
       <c r="G57" s="10">
-        <v>6.27</v>
+        <v>6.22</v>
       </c>
       <c r="H57" s="10">
         <v>9.94</v>
       </c>
       <c r="I57" s="10">
-        <v>10.06</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="J57" s="10">
-        <v>8.8800000000000008</v>
+        <v>8.82</v>
       </c>
       <c r="K57" s="10">
-        <v>8.65</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3145,22 +3145,22 @@
         <v>65</v>
       </c>
       <c r="B58" s="10">
-        <v>11.23</v>
+        <v>11.24</v>
       </c>
       <c r="C58" s="10">
-        <v>11.01</v>
+        <v>11.02</v>
       </c>
       <c r="D58" s="10">
-        <v>9.44</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="E58" s="10">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="F58" s="10">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="G58" s="10">
-        <v>6.8</v>
+        <v>6.78</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>14</v>
@@ -3172,7 +3172,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="K58" s="10">
-        <v>8</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3180,34 +3180,34 @@
         <v>66</v>
       </c>
       <c r="B59" s="8">
-        <v>14.59</v>
+        <v>14.6</v>
       </c>
       <c r="C59" s="8">
-        <v>14.32</v>
+        <v>14.31</v>
       </c>
       <c r="D59" s="8">
-        <v>13.44</v>
+        <v>13.38</v>
       </c>
       <c r="E59" s="8">
-        <v>13.93</v>
+        <v>13.85</v>
       </c>
       <c r="F59" s="8">
         <v>9.2100000000000009</v>
       </c>
       <c r="G59" s="8">
-        <v>9.1300000000000008</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H59" s="8">
-        <v>9.0299999999999994</v>
+        <v>8.94</v>
       </c>
       <c r="I59" s="8">
-        <v>9.01</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="J59" s="8">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="K59" s="8">
-        <v>12.93</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3215,34 +3215,34 @@
         <v>67</v>
       </c>
       <c r="B60" s="10">
-        <v>17.29</v>
+        <v>17.34</v>
       </c>
       <c r="C60" s="10">
-        <v>16.93</v>
+        <v>16.96</v>
       </c>
       <c r="D60" s="10">
+        <v>15.26</v>
+      </c>
+      <c r="E60" s="10">
+        <v>15.91</v>
+      </c>
+      <c r="F60" s="10">
+        <v>12.16</v>
+      </c>
+      <c r="G60" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="H60" s="10">
+        <v>8.93</v>
+      </c>
+      <c r="I60" s="10">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="J60" s="10">
         <v>15.35</v>
       </c>
-      <c r="E60" s="10">
-        <v>16.02</v>
-      </c>
-      <c r="F60" s="10">
-        <v>12.17</v>
-      </c>
-      <c r="G60" s="10">
-        <v>12.32</v>
-      </c>
-      <c r="H60" s="10">
-        <v>9.02</v>
-      </c>
-      <c r="I60" s="10">
-        <v>9.01</v>
-      </c>
-      <c r="J60" s="10">
-        <v>15.38</v>
-      </c>
       <c r="K60" s="10">
-        <v>15.56</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="10">
-        <v>10.62</v>
+        <v>10.63</v>
       </c>
       <c r="C61" s="10">
         <v>10.7</v>
@@ -3259,10 +3259,10 @@
         <v>8.86</v>
       </c>
       <c r="E61" s="10">
-        <v>8.81</v>
+        <v>8.82</v>
       </c>
       <c r="F61" s="10">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="G61" s="10">
         <v>5.99</v>
@@ -3271,13 +3271,13 @@
         <v>9.26</v>
       </c>
       <c r="I61" s="10">
-        <v>9.1300000000000008</v>
+        <v>9.15</v>
       </c>
       <c r="J61" s="10">
-        <v>8.86</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K61" s="10">
-        <v>8.73</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3285,34 +3285,34 @@
         <v>69</v>
       </c>
       <c r="B62" s="10">
-        <v>9.39</v>
+        <v>9.4</v>
       </c>
       <c r="C62" s="10">
-        <v>9.0399999999999991</v>
+        <v>9.08</v>
       </c>
       <c r="D62" s="10">
-        <v>8.36</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E62" s="10">
-        <v>8.16</v>
+        <v>8.19</v>
       </c>
       <c r="F62" s="10">
-        <v>4.5199999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="G62" s="10">
-        <v>4.3600000000000003</v>
+        <v>4.37</v>
       </c>
       <c r="H62" s="10">
-        <v>8.9499999999999993</v>
+        <v>8.98</v>
       </c>
       <c r="I62" s="10">
-        <v>8.0299999999999994</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="J62" s="10">
-        <v>7.67</v>
+        <v>7.69</v>
       </c>
       <c r="K62" s="10">
-        <v>7.33</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3320,22 +3320,22 @@
         <v>70</v>
       </c>
       <c r="B63" s="8">
-        <v>24.46</v>
+        <v>24.52</v>
       </c>
       <c r="C63" s="8">
-        <v>25.75</v>
+        <v>25.58</v>
       </c>
       <c r="D63" s="8">
-        <v>21.52</v>
+        <v>21.58</v>
       </c>
       <c r="E63" s="8">
-        <v>22.8</v>
+        <v>22.66</v>
       </c>
       <c r="F63" s="8">
-        <v>19.13</v>
+        <v>19.23</v>
       </c>
       <c r="G63" s="8">
-        <v>21.11</v>
+        <v>20.96</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>14</v>
@@ -3344,10 +3344,10 @@
         <v>14</v>
       </c>
       <c r="J63" s="8">
-        <v>21.59</v>
+        <v>21.67</v>
       </c>
       <c r="K63" s="8">
-        <v>23.12</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3355,22 +3355,22 @@
         <v>71</v>
       </c>
       <c r="B64" s="10">
-        <v>20.57</v>
+        <v>20.63</v>
       </c>
       <c r="C64" s="10">
-        <v>19.899999999999999</v>
+        <v>19.91</v>
       </c>
       <c r="D64" s="10">
-        <v>18.190000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="E64" s="10">
-        <v>17.510000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="F64" s="10">
-        <v>15.41</v>
+        <v>15.48</v>
       </c>
       <c r="G64" s="10">
-        <v>14.61</v>
+        <v>14.69</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>14</v>
@@ -3379,10 +3379,10 @@
         <v>14</v>
       </c>
       <c r="J64" s="10">
-        <v>18.329999999999998</v>
+        <v>18.37</v>
       </c>
       <c r="K64" s="10">
-        <v>17.64</v>
+        <v>17.670000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3390,22 +3390,22 @@
         <v>72</v>
       </c>
       <c r="B65" s="10">
-        <v>27.34</v>
+        <v>27.44</v>
       </c>
       <c r="C65" s="10">
-        <v>30.14</v>
+        <v>29.86</v>
       </c>
       <c r="D65" s="10">
-        <v>24.41</v>
+        <v>24.54</v>
       </c>
       <c r="E65" s="10">
-        <v>27.35</v>
+        <v>27.1</v>
       </c>
       <c r="F65" s="10">
-        <v>20.49</v>
+        <v>20.61</v>
       </c>
       <c r="G65" s="10">
-        <v>23.49</v>
+        <v>23.24</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>14</v>
@@ -3414,10 +3414,10 @@
         <v>14</v>
       </c>
       <c r="J65" s="10">
-        <v>23.67</v>
+        <v>23.79</v>
       </c>
       <c r="K65" s="10">
-        <v>26.63</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3425,34 +3425,34 @@
         <v>73</v>
       </c>
       <c r="B66" s="8">
-        <v>12.57</v>
+        <v>12.58</v>
       </c>
       <c r="C66" s="8">
         <v>12.68</v>
       </c>
       <c r="D66" s="8">
-        <v>10.4</v>
+        <v>10.39</v>
       </c>
       <c r="E66" s="8">
-        <v>10.72</v>
+        <v>10.68</v>
       </c>
       <c r="F66" s="8">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="G66" s="8">
-        <v>6.98</v>
+        <v>6.95</v>
       </c>
       <c r="H66" s="8">
-        <v>9.5299999999999994</v>
+        <v>9.49</v>
       </c>
       <c r="I66" s="8">
-        <v>10.16</v>
+        <v>10.11</v>
       </c>
       <c r="J66" s="8">
-        <v>10.31</v>
+        <v>10.3</v>
       </c>
       <c r="K66" s="8">
-        <v>10.48</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
